--- a/ExcelConfig/炼金升级表.xlsx
+++ b/ExcelConfig/炼金升级表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <r>
       <rPr>
@@ -73,6 +73,60 @@
   </si>
   <si>
     <t>产出值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对应的功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdTime</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,16 +508,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -486,25 +540,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="20.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -517,8 +572,14 @@
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.35">
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -531,8 +592,14 @@
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.35">
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -545,8 +612,14 @@
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -556,8 +629,14 @@
       <c r="D4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -567,8 +646,14 @@
       <c r="D5" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -578,8 +663,14 @@
       <c r="D6" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -588,6 +679,29 @@
       </c>
       <c r="D7" s="2">
         <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/炼金升级表.xlsx
+++ b/ExcelConfig/炼金升级表.xlsx
@@ -10,7 +10,7 @@
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="ProduceLevelUpConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -540,13 +540,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -556,10 +556,14 @@
     <col min="3" max="3" width="15" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.5546875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="17.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="25.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -579,7 +583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -599,7 +603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -619,11 +623,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2">
+        <f>I4</f>
         <v>0</v>
       </c>
       <c r="D4" s="2">
@@ -633,14 +638,27 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
+        <f>H4</f>
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H4" s="2">
+        <f>0.1*G4</f>
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="2">
+        <f>100*((POWER(2,G4-1))-1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2">
+        <f t="shared" ref="C5:C8" si="0">I5</f>
         <v>100</v>
       </c>
       <c r="D5" s="2">
@@ -650,14 +668,27 @@
         <v>2</v>
       </c>
       <c r="F5" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F5:F8" si="1">H5</f>
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ref="H5:H8" si="2">0.1*G5</f>
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" ref="I5:I8" si="3">100*((POWER(2,G5-1))-1)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="2">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="D6" s="2">
@@ -667,15 +698,28 @@
         <v>3</v>
       </c>
       <c r="F6" s="2">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>700</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
@@ -684,15 +728,28 @@
         <v>4</v>
       </c>
       <c r="F7" s="2">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>1500</v>
       </c>
       <c r="D8" s="2">
         <v>8</v>
@@ -701,7 +758,19 @@
         <v>5</v>
       </c>
       <c r="F8" s="2">
-        <v>1.4</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="3"/>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
